--- a/stance_sample.xlsx
+++ b/stance_sample.xlsx
@@ -452,12 +452,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>.   SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -468,7 +467,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -483,7 +482,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -504,12 +503,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>. Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>. Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -520,14 +518,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>.   16.10.2018, 09:24 Legende:
                 Schon fast ein seltenes Bild: Kühe mit Hörnern: Heute sind fast 90 Prozent der Kühe in der Schweiz enthornt.
-                    Keystone Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                    Keystone Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,7 +535,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -576,12 +573,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>.   An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -592,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -622,7 +618,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -638,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -657,7 +653,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -672,7 +668,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -701,12 +697,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>. Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>. Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -717,7 +712,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -732,7 +727,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -764,12 +759,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>.   Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -780,14 +774,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>.   Wie schon bei der Trinkwasser-Initiative könnte es zu einem heftigen Schlagabtausch kommen.  Die gelb-grün-blauen Fahnen an den Balkonen der Befürworterinnen und Befürworter der Biodiversitätsinitiative erhalten Konkurrenz: Die Gegner des Volksbegehrens haben ihre Fahne heute vorgestellt. «Nein! Zur extremen Biodiversitätsinitiative» steht dort weiss auf rotem Grund geschrieben. Unter den Gegnern ist Mitte-Nationalrat und Bauernpräsident Markus Ritter. Ihm gehen die Forderungen zu weit. Denn die Initiative will nicht nur mehr Fläche für die Artenvielfalt ausscheiden, sondern auch die verschiedenen Landschaften und Ortsbilder schonen – auch ausserhalb von Schutzgebieten. «Die Initiative geht weit über die Biodiversität hinaus», sagt Ritter denn auch. Entsprechend breit sei das Komitee gegen das Begehren aufgestellt. Und so spannen Landwirtschaft und Wirtschaft gegen die Initiative zusammen. Sie befürchten, diese würde eine nachhaltige Lebensmittel- und Energieproduktion massiv einschränken. Ausserdem würden die Bäuerinnen und Bauern bereits viel für die Artenvielfalt machen, wird argumentiert. Das sagen die Initianten:
 Der Mensch brauche die Biodiversität, um zu überleben. Deshalb müsse eine intakte und vielfältige Natur erhalten bleiben. Bereits seien in der Schweiz ein Drittel der Tier- und Pflanzenarten ausgestorben oder gefährdet, die Hälfte aller Lebensräume seien bedroht. Die überbordende Überbauung, Zersiedelung und intensive Landnutzung müsse gestoppt werden. Zudem schütze eine intakte Artenvielfalt vor Klimawandel und Umweltkatastrophen. Das sagen die Gegner:
-Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -798,7 +791,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -813,14 +806,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>. Im Februar wird über die Initiative über das Verbot von Tierversuchen abgestimmt. Sind Tierversuche unverzichtbar oder unnütze Quälerei?  Liebe Userinnen und User, die geplante «Forum»-Sendung vom Donnerstag, 20. Januar zur Tierversuchsverbotsinitiative findet aufgrund eines Ausfalls im Team von Radio SRF 1 nicht statt. Wir schliessen deshalb die Kommentare zu diesem Artikel. Danke fürs Verständnis und merci fürs Mitkommentieren!   Am 13. Februar 2022 entscheidet die Schweizer Stimmbevölkerung über die Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt», kurz Tierversuchsverbots-Initiative. Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen: Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Deshalb fordert die Initiative ein bedingungsloses Verbot von Tierversuchen. Zudem soll der Import von Produkten und Medikamenten, die mit Tierversuchen entwickelt wurden, verboten werden. Auch klinische Studien noch nicht zugelassener Medikamente an gesunden Menschen, von den Initiantinnen «Menschenversuche» genannt, würden bei Annahme der Initiative verboten. «Die Menschenversuche liefern nur vage Durchschnittswerte», sagt Regina Möckli vom Unterstützungskomitee. Die Initianten argumentieren zudem, Tierversuche seien ineffizient: Die Körper von Tieren unterschieden sich zu stark von jenen der Menschen. Von 100 Wirkstoffen versagten 95 im Menschenversuch, trotz scheinbar erfolgversprechender Ergebnisse im Tierversuch. Lanciert wurde die Initiative von der Interessengemeinschaft Tierversuchsverbot Schweiz – einer kleinen Gruppe von Tierschützerinnen und Tierschützern ohne politische Bindung.
 Bundesrat und Parlament lehnen die Initiative geschlossen ab. Auch viele Verbände und Interessegruppen sind dagegen: zum Beispiel Economiesuisse, die Ärztevereinigung FMH, der Schweizer Tierschutz und der Schweizerische Nationalfonds. Für die Initiative findet sich weder bei Parteien und noch bei Verbänden Unterstützung – zumindest offiziell.  Fakt ist: Rund 600'000 Tiere pro Jahr werden in der Schweiz in Tierversuchen von Universitäten, Spitälern oder Pharma eingesetzt – Fische, Mäuse, Vögel, Katzen, Hunde oder Affen. Knapp ein Drittel davon müssen belastende Experimente über sich ergehen lassen. Die schwersten Versuche des «Schweregrades 3» sind mit starken Schmerzen oder Angst, schweren Beeinträchtigungen und langfristigen Leiden verbunden. Während in den letzten Jahren die Anzahl der Tierversuche stark abgenommen hat, nehmen die besonders belastenden Versuche nach wie vor zu. Forscherinnen und Forscher bezeichnen die Initiative aber als radikal: Ganz ohne Einsatz von Tieren sei im Moment wissenschaftlicher Fortschritt nicht möglich. Mit dem Importverbot für Medikamente, die mit Tierversuchen hergestellt wurden, würde sich die Schweiz ins Mittelalter zurückkatapultieren.  Bei einer Annahme gäbe es in der Schweiz keine neuen Medikamente, Therapien oder Impfstoffe mehr, weder für Menschen noch für Tiere. «Wir hätten keine Impfungen und kein einziges Antibiotikum mehr. Und auch keine Medikamente gegen schwere Krankheiten wie Krebs», befürchtet beispielsweise der Tierforscher Robert Rieben von der Uni Bern. Die Schweiz habe im internationalen Vergleich bereits eines der strengsten Tierschutzgesetze, argumentieren die Initiativ-Gegner. Tierversuche dürfen nur dann durchgeführt werden, wenn keine Alternativen zur Verfügung stehen. Zudem muss jeder Versuch vom kantonalen Veterinäramt und der jeweiligen Tierversuchskommission bewilligt werden. Würde die Initiative angenommen, wäre die Schweiz das erste Land, das komplett auf Tierversuche verzichtet. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
-Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.  
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -831,7 +823,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -857,7 +849,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -872,7 +864,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -915,12 +907,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>.   Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -931,7 +922,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -940,8 +931,7 @@
 Zudem sollen Pflegefachpersonen gewisse Pflegeleistungen selbständig direkt mit der obligatorischen Krankenpflegeversicherung oder anderen Sozialversicherungen abrechnen können. Heute können sie grundsätzlich nur die Leistungen abrechnen, die von einer Ärztin oder einem Arzt angeordnet worden sind.
 Dem Bundesrat und einer Mehrheit des Parlaments geht dieser Vorschlag zu weit. Das Parlament hat deshalb einen indirekten Gegenvorschlag zur Volksinitiative verabschiedet. Dieser Vorschlag tritt in Kraft, wenn die Initiative abgelehnt wird und der Gegenvorschlag nicht erfolgreich mit einem Referendum bekämpft wird.
 Der Gegenvorschlag sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Mit dem Geld sollen sowohl Studierende als auch Spitäler, Pflegeheime und Spitexorganisationen unterstützt werden, die Pflegepersonal ausbilden.
-Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -952,12 +942,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -968,12 +957,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -984,7 +972,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -999,7 +987,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1014,7 +1002,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1029,12 +1017,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>.    Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.    Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1045,7 +1032,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1066,7 +1053,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1081,7 +1068,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1104,7 +1091,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1119,12 +1106,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>.   Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU. 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1135,12 +1121,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>.   Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1151,7 +1136,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1166,7 +1151,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1187,7 +1172,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1202,14 +1187,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>.   30.10.2021, 13:43 Die Organisatorinnen des Bündnis' Gesundheitspersonal schätzten die Zahl auf 5000 Teilnehmende. Im Rahmen der Kundgebung berichteten Gesundheitsfachfrauen aus allen Landesteilen, wie sie im Alltag den «Notstand» in der Pflege erlebten. Derzeit seien 11'000 Stellen in der Pflege unbesetzt, was zu enormem Druck und einem für die Patienten gefährlichem Qualitätsverlust führe. In den Reden wurde für eine Annahme der Pflege-Initiative geworben. Eine blosse Ausbildungsoffensive, wie sie der indirekte Gegenvorschlag vorsehe, genüge nicht, hiess es. «Was nützt dies, wenn viele den Beruf nachher verlassen?», fragte sich eine Rednerin. Nötig sei eine grundsätzliche Reform des Gesundheitswesens. Auf Transparenten und Schildern war unter anderem zu lesen: «Wir retten Euch – Rettet uns», «Stoppt Burnout und Erschöpfung» oder «Klatschen reicht nicht.» Zur Kundgebung aufgerufen hatte das Bündnis Gesundheitspersonal, dem über 10 Berufsverbände und Gewerkschaften angehören, darunter der Berufsverbund der Pflegefachfrauen und Pflegefachmänner (SBK). Die vom SBK lancierte Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Der Bund soll die Arbeitsbedingungen in den Spitälern, Heimen und Spitex-Organisationen verbindlich regeln. Dazu zählt die Höhe der Löhne. Dem Bundesrat und einer Mehrheit des Parlaments geht die Initiative zu weit. Ein indirekter Gegenvorschlag sieht vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Der Gegenvorschlag käme bei einer Ablehnung der Initiative zum Zug. Auch einige tausend Beschäftigte aus der Bau- und anderen Branchen haben in Bern, Olten, Zürich, Genf und Bellinzona für mehr Lohn, Respekt und Solidarität demonstriert. Sie forderten die Anerkennung ihrer Leistungen in der Covid-19-Pandemie. Aufgerufen zu den Demonstrationen hatte die Gewerkschaft Unia. Wie sie mitteilte, schlossen sich den Demonstrierenden aus der Baubranche auch Arbeitnehmerinnen und Arbeitnehmer aus Pflege, Verkauf und Logistik an. Sie alle hätten während der Pandemie unermüdlich an vorderster Front gearbeitet. Obwohl die Bevölkerung für sie geklatscht hätte, hätte sich an den Arbeitsbedingungen gemäss Unia nichts geändert.  SRF 4 News, 30.10.2021, 15 Uhr
                 ;                                         
-                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">

--- a/stance_sample.xlsx
+++ b/stance_sample.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>result_clean</t>
+          <t>result</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
+          <t>Abgelehnt</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>angenommen</t>
+          <t>Angenommen</t>
         </is>
       </c>
     </row>
